--- a/meeting_attendance.xlsx
+++ b/meeting_attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasschmidt/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9587E608-4D69-5B41-B16C-7D885B64C93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7ED8482-2676-B844-B9EE-CC421F371E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23240" windowHeight="13160" xr2:uid="{E72CEAAE-E400-40A4-960E-E6CF6F1A5F9F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>Attended</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>Saturday Dec 2nd</t>
+  </si>
+  <si>
+    <t>Saturday Dec 9th</t>
+  </si>
+  <si>
+    <t>Wednesday Dec 6th</t>
+  </si>
+  <si>
+    <t>Sunday Dec 10th</t>
+  </si>
+  <si>
+    <t>Added On Meetings</t>
   </si>
 </sst>
 </file>
@@ -94,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +131,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -132,19 +150,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -461,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC052AD-010C-4F40-8372-109EA2C6810B}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -473,139 +488,164 @@
     <col min="2" max="4" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:D8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>